--- a/Mini_Project/phonesUnder30000.xlsx
+++ b/Mini_Project/phonesUnder30000.xlsx
@@ -12,7 +12,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+  <si>
+    <t>OPPO Reno2 F (Lake Green, 128 GB)</t>
+  </si>
+  <si>
+    <t>₹21,990</t>
+  </si>
   <si>
     <t>Samsung Galaxy A51 (Prism Crush Blue, 128 GB)</t>
   </si>
@@ -20,25 +26,16 @@
     <t>₹24,499</t>
   </si>
   <si>
-    <t>OPPO Reno2 F (Lake Green, 128 GB)</t>
+    <t>Realme X3 (Arctic White, 128 GB)</t>
   </si>
   <si>
-    <t>₹21,990</t>
+    <t>₹25,999</t>
   </si>
   <si>
     <t>Realme X3 (Glacier Blue, 128 GB)</t>
   </si>
   <si>
-    <t>₹25,999</t>
-  </si>
-  <si>
-    <t>Good One Magic</t>
-  </si>
-  <si>
-    <t>₹1,399</t>
-  </si>
-  <si>
-    <t>Realme X3 (Arctic White, 128 GB)</t>
+    <t>₹22,999</t>
   </si>
 </sst>
 </file>
@@ -121,15 +118,15 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
